--- a/psp forms/Time Recording log.xlsx
+++ b/psp forms/Time Recording log.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet name="excel (23)" sheetId="1" r:id="rId1"/>
+    <sheet name="excel (33)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="excel__23" localSheetId="0">'excel (23)'!$A$1:$F$11</definedName>
+    <definedName name="excel__33" localSheetId="0">'excel (33)'!$A$1:$F$10</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -23,14 +23,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\jaher\Downloads\excel (23).iqy" name="excel (23)" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" odcFile="C:\Users\jaher\Downloads\excel (33).iqy" name="excel (33)" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://localhost:2468/Non+Project/PSP+Fundamentals+%26+Advanced/Program+4/+/reports/timelog.class?EXPORT=excel" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Proyecto/Tarea</t>
   </si>
@@ -59,6 +59,9 @@
     <t>mar 18, 2017 05:51:51 PM</t>
   </si>
   <si>
+    <t>Fui al baÃ±o</t>
+  </si>
+  <si>
     <t>mar 18, 2017 07:56:46 PM</t>
   </si>
   <si>
@@ -80,10 +83,13 @@
     <t>mar 19, 2017 10:21:49 AM</t>
   </si>
   <si>
+    <t>Sali a almorzar</t>
+  </si>
+  <si>
     <t>Code Review</t>
   </si>
   <si>
-    <t>mar 19, 2017 03:38:02 PM</t>
+    <t>mar 19, 2017 03:36:02 PM</t>
   </si>
   <si>
     <t>Compile</t>
@@ -102,9 +108,6 @@
   </si>
   <si>
     <t>mar 19, 2017 04:49:36 PM</t>
-  </si>
-  <si>
-    <t>mar 19, 2017 05:28:32 PM</t>
   </si>
 </sst>
 </file>
@@ -688,7 +691,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (23)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (33)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -988,9 +991,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -999,6 +1004,7 @@
     <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1037,7 +1043,9 @@
       <c r="E2" s="3">
         <v>4</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1047,7 +1055,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3">
         <v>46</v>
@@ -1062,10 +1070,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3">
         <v>34</v>
@@ -1080,10 +1088,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3">
         <v>10</v>
@@ -1098,10 +1106,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3">
         <v>118</v>
@@ -1109,20 +1117,22 @@
       <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
@@ -1134,10 +1144,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" s="3">
         <v>15</v>
@@ -1152,10 +1162,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3">
         <v>32</v>
@@ -1170,10 +1180,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="3">
         <v>33</v>
@@ -1182,24 +1192,6 @@
         <v>0</v>
       </c>
       <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
